--- a/Outputs/3. Prosumer percentage/Output Files/100/Output_7_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/100/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1211755.372565523</v>
+        <v>1163804.139175834</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16612500.99216495</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916859</v>
+        <v>278692.0725916858</v>
       </c>
     </row>
     <row r="9">
@@ -664,13 +664,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>174.9538543471074</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>64.21860027620201</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -819,22 +819,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>159.5828560759984</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>232.792050102203</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -901,19 +901,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>418.8416598271899</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -949,7 +949,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -961,10 +961,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>300.7527507064972</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>161.9259001234192</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -1110,13 +1110,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>13.8645477167505</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1135,7 +1135,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>424.3161878797243</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1147,7 +1147,7 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>257.091055539935</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1341,16 +1341,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>13.99728392830462</v>
       </c>
       <c r="U10" t="n">
-        <v>172.6623007436913</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1530,7 +1530,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
@@ -1539,7 +1539,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>33.28996520190753</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>46.47710458853142</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1618,7 +1618,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1767,13 +1767,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>137.2470510215445</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>240.4911776300923</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1830,7 +1830,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800599</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1900,7 +1900,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -2004,25 +2004,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>115.7595572938008</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2137,7 +2137,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2146,7 +2146,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2241,7 +2241,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>59.41244209702454</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
         <v>164.2192128704925</v>
@@ -2493,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
-        <v>238.2884989284073</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>61.43755362246745</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3015,7 +3015,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
-        <v>20.08472694640569</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y31" t="n">
         <v>225.1454739790328</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>85.55329631630661</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3325,7 +3325,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
@@ -3426,25 +3426,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>122.9229677259526</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735226066</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3523,7 +3523,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791325486</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3663,7 +3663,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>50.38971918733537</v>
       </c>
       <c r="D40" t="n">
         <v>164.2192128704925</v>
@@ -3672,16 +3672,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>109.4519776932682</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
@@ -3805,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864827</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3906,7 +3906,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>56.63677140718728</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -4030,7 +4030,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
         <v>256.6300796561533</v>
@@ -4146,16 +4146,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513513</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4191,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>587.458323283332</v>
+        <v>484.0636759001416</v>
       </c>
       <c r="C2" t="n">
-        <v>553.3562545071593</v>
+        <v>449.9616071239689</v>
       </c>
       <c r="D2" t="n">
-        <v>376.6351895100811</v>
+        <v>418.0922263388175</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9008487087803</v>
+        <v>388.3578855375167</v>
       </c>
       <c r="F2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>323.0738231583921</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>34.36045797446834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>267.8706684926505</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="M2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="N2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="O2" t="n">
+        <v>874.0494664914149</v>
+      </c>
+      <c r="P2" t="n">
         <v>1107.976466382457</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1528.02936532736</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1528.02936532736</v>
       </c>
       <c r="Q2" t="n">
         <v>1528.02936532736</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1437.961127397434</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1437.961127397434</v>
+        <v>1334.566480014244</v>
       </c>
       <c r="W2" t="n">
-        <v>1437.146076848872</v>
+        <v>929.7110254252771</v>
       </c>
       <c r="X2" t="n">
-        <v>1018.003613428182</v>
+        <v>510.5685620045878</v>
       </c>
       <c r="Y2" t="n">
-        <v>609.7174897278358</v>
+        <v>506.3228423446453</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>358.5019935678207</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>778.554892512724</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1224.671464618085</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1024.341879988165</v>
+        <v>195.1384727187784</v>
       </c>
       <c r="C4" t="n">
-        <v>851.7801684713901</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D4" t="n">
-        <v>685.9021756729128</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E4" t="n">
-        <v>516.14417192365</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
         <v>33.94366860160834</v>
@@ -4488,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>452.1535503695694</v>
       </c>
       <c r="M4" t="n">
-        <v>813.4916901053949</v>
+        <v>872.2064493144727</v>
       </c>
       <c r="N4" t="n">
-        <v>813.4916901053949</v>
+        <v>1292.259348259376</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4518,22 +4518,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1451.303983658873</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>1216.160498707152</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W4" t="n">
-        <v>1216.160498707152</v>
+        <v>859.7685167902448</v>
       </c>
       <c r="X4" t="n">
-        <v>1216.160498707152</v>
+        <v>614.3767621236573</v>
       </c>
       <c r="Y4" t="n">
-        <v>1216.160498707152</v>
+        <v>386.9570914377655</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1264.950381849274</v>
+        <v>965.6253987944309</v>
       </c>
       <c r="C5" t="n">
-        <v>1230.848313073101</v>
+        <v>931.5233300182583</v>
       </c>
       <c r="D5" t="n">
-        <v>1198.97893228795</v>
+        <v>508.4509463544301</v>
       </c>
       <c r="E5" t="n">
-        <v>1169.244591486649</v>
+        <v>74.67620151272526</v>
       </c>
       <c r="F5" t="n">
-        <v>741.3771618958569</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233708</v>
+        <v>50.84917596233705</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J5" t="n">
-        <v>50.43238658947708</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>50.43238658947708</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="L5" t="n">
-        <v>674.533170634256</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="M5" t="n">
-        <v>1298.633954679035</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="N5" t="n">
-        <v>1922.734738723814</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="O5" t="n">
-        <v>1922.734738723814</v>
+        <v>1181.865694717423</v>
       </c>
       <c r="P5" t="n">
-        <v>1922.734738723814</v>
+        <v>1805.966478762201</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720797</v>
+        <v>2352.465264720796</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.967455657691</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="T5" t="n">
-        <v>2217.90022853073</v>
+        <v>2437.96745565769</v>
       </c>
       <c r="U5" t="n">
-        <v>1958.677925847747</v>
+        <v>2178.745152974707</v>
       </c>
       <c r="V5" t="n">
-        <v>1596.060975781573</v>
+        <v>1816.128202908533</v>
       </c>
       <c r="W5" t="n">
-        <v>1595.24592523301</v>
+        <v>1815.313152359971</v>
       </c>
       <c r="X5" t="n">
-        <v>1291.45526795372</v>
+        <v>1396.170688939281</v>
       </c>
       <c r="Y5" t="n">
-        <v>1287.209548293778</v>
+        <v>987.8845652389347</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1364.551312986338</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>1258.09485182298</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>1163.004562969534</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>1068.884148296487</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>985.5003099126491</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>900.1152201788329</v>
+        <v>92.16803877326458</v>
       </c>
       <c r="H6" t="n">
-        <v>858.3795679950454</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="I6" t="n">
-        <v>884.443241155503</v>
+        <v>76.49605974993466</v>
       </c>
       <c r="J6" t="n">
-        <v>1209.001566121715</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>1833.102350166494</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1863.707612747439</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1863.707612747439</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1863.707612747439</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1863.707612747439</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1863.707612747439</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>2404.446551379514</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>2521.619329473854</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>2458.163891922237</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>2327.985248252839</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>2151.648701252807</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1952.531183314807</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>1767.208429048001</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>1612.340993286881</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>1485.855214066101</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>784.8543544130243</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>784.8543544130243</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>784.8543544130243</v>
       </c>
       <c r="E7" t="n">
         <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>444.5857850985995</v>
       </c>
       <c r="G7" t="n">
         <v>278.9945101244272</v>
@@ -4722,55 +4722,55 @@
         <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947708</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="J7" t="n">
-        <v>137.0120717541669</v>
+        <v>50.43238658947705</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253025</v>
+        <v>325.1908411606126</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932636</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2151.392327657602</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609522</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473854</v>
+        <v>2521.619329473853</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179226</v>
+        <v>2500.201508179225</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477223</v>
+        <v>2340.960139477221</v>
       </c>
       <c r="T7" t="n">
-        <v>2095.080693055678</v>
+        <v>2095.080693055676</v>
       </c>
       <c r="U7" t="n">
-        <v>2081.076099402394</v>
+        <v>1816.647692308782</v>
       </c>
       <c r="V7" t="n">
-        <v>1794.120591272825</v>
+        <v>1529.692184179212</v>
       </c>
       <c r="W7" t="n">
-        <v>1794.120591272825</v>
+        <v>1257.665779765504</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1012.274025098916</v>
       </c>
       <c r="Y7" t="n">
-        <v>1321.309165920346</v>
+        <v>784.8543544130243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>577.3912258549057</v>
+        <v>969.2487943945847</v>
       </c>
       <c r="C8" t="n">
-        <v>139.2487530383289</v>
+        <v>540.6465844150651</v>
       </c>
       <c r="D8" t="n">
-        <v>107.3793722531775</v>
+        <v>508.7772036299137</v>
       </c>
       <c r="E8" t="n">
-        <v>77.64503145187676</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
-        <v>53.81800590148855</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G8" t="n">
         <v>53.81800590148855</v>
@@ -4807,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2449.993599304466</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V8" t="n">
-        <v>2087.376649238293</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W8" t="n">
-        <v>1682.521194649326</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X8" t="n">
-        <v>1263.378731228637</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y8" t="n">
-        <v>1003.690796339813</v>
+        <v>1395.548364879493</v>
       </c>
     </row>
     <row r="9">
@@ -4886,25 +4886,25 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1605.602207829152</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4989,13 +4989,13 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2069.115825625685</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
         <v>2069.115825625685</v>
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C11" t="n">
         <v>2090.757574835212</v>
@@ -5044,13 +5044,13 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
         <v>2588.899621423628</v>
@@ -5068,25 +5068,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2970399865835</v>
       </c>
       <c r="J12" t="n">
-        <v>102.2608402707796</v>
+        <v>426.8553649527958</v>
       </c>
       <c r="K12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
         <v>1648.327823655249</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>790.3368563937634</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C13" t="n">
-        <v>790.3368563937634</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D13" t="n">
-        <v>624.4588635952861</v>
+        <v>611.1385207805145</v>
       </c>
       <c r="E13" t="n">
-        <v>454.7008598460233</v>
+        <v>441.3805170312517</v>
       </c>
       <c r="F13" t="n">
-        <v>454.7008598460233</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>289.109584871851</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>149.2074105622255</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5226,25 +5226,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878938</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.96690046523</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798642</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y13" t="n">
-        <v>982.1554751127505</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
         <v>793.2056155771595</v>
@@ -5284,10 +5284,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
         <v>2588.899621423628</v>
@@ -5305,25 +5305,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3205.876241053795</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>3205.876241053795</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>3067.242856183548</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>3067.242856183548</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>2890.535802145304</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>2724.944527171132</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S16" t="n">
-        <v>4953.800644836978</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T16" t="n">
-        <v>4707.921198415434</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U16" t="n">
-        <v>4429.488197668539</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V16" t="n">
-        <v>4142.53268953897</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W16" t="n">
-        <v>3870.506285125261</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X16" t="n">
-        <v>3625.114530458674</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>3397.694859772782</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5524,10 +5524,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3569.079287993934</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
         <v>3569.079287993934</v>
@@ -5548,19 +5548,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3184.458419759167</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>3184.458419759167</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>3018.58042696069</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>2901.651581209376</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>2724.944527171132</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>2724.944527171132</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>4408.070376373911</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>4121.114868244342</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>3849.088463830633</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>3603.696709164046</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>3376.277038478154</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5752,16 +5752,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5785,13 +5785,13 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5992,19 +5992,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2769.623329187108</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3749.802995757414</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1602.717526820355</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1008.757289365886</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6174,25 +6174,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2318.983628008538</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2040.550627261643</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1753.595119132073</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1481.568714718365</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1236.176960051778</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1008.757289365886</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>605.8694973157604</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1680.92946356862</v>
       </c>
       <c r="M26" t="n">
-        <v>3603.973621145286</v>
+        <v>2837.977298779171</v>
       </c>
       <c r="N26" t="n">
-        <v>4729.704604581732</v>
+        <v>3963.708282215618</v>
       </c>
       <c r="O26" t="n">
-        <v>4729.704604581732</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>920.0973401405612</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6408,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1015.441008084184</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>842.8792965674086</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6645,28 +6645,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1434.679297489062</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1207.259626803171</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6782,22 +6782,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="Q33" t="n">
         <v>1648.327823655249</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1039.174348374283</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>866.6126368575082</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>700.7346440590309</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>530.9766403097681</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>354.2695862715243</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>188.678311297352</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1230.99296709327</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6928,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6940,49 +6940,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>1694.563362934248</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="36">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>666.1722425291648</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>666.1722425291648</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>496.4142387799021</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7113,34 +7113,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436408</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7177,49 +7177,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3233.142235235646</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>3060.580523718871</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>2894.702530920394</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>2724.944527171131</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>2724.944527171131</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>2724.944527171131</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>2585.042352861506</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372006</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5091.624192244352</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>4981.066639018829</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>4735.187192597285</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>4456.75419185039</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>4169.798683720821</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>3897.772279307113</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>3652.380524640525</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>3424.960853954633</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7402,7 +7402,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
         <v>102.6776296436396</v>
@@ -7414,49 +7414,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>537.5155277236975</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1694.563362934248</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2820.294346370695</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1068.769857140658</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>896.2081456238831</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>730.3301528254058</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
         <v>102.2608402707796</v>
@@ -7593,28 +7593,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>2005.426305625833</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1733.399901212125</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1488.008146545537</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1260.588475859645</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7636,13 +7636,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
         <v>102.2608402707796</v>
@@ -7660,16 +7660,16 @@
         <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2758.053686176683</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>3738.23335274699</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>4566.543227580386</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7687,13 +7687,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2292.381813755403</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8054,17 +8054,17 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>385.2554146752024</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684635</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684636</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>434.0712383807916</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>30.9144066474189</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8391,10 +8391,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191105</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8455,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8534,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,16 +8692,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>935.0031416802861</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,13 +8783,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8932,13 +8932,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9172,13 +9172,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458549</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,10 +9409,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9640,13 +9640,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9655,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>654.127441484763</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157522</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -9889,16 +9889,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>387.209503997221</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
@@ -10357,22 +10357,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>-5.226490029168309e-13</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -10588,19 +10588,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458549</v>
@@ -10825,19 +10825,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10898,22 +10898,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>141.6500182959538</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>41.29624514453999</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>26.97216184894799</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>35.15749310933339</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>52.30086641796933</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
-        <v>5.132153028922005</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>128.4628789093298</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>222.853110173516</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>52.94985625022261</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>47.91312667565475</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627226</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>120.4463752142719</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>48.19697732171514</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>111.4236523045828</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26034,16 +26034,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>620929.6963953227</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>620929.6963953227</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>620929.6963953227</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>620929.6963953224</v>
+        <v>620929.6963953227</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>620929.6963953226</v>
+        <v>620929.6963953224</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>620929.6963953227</v>
+        <v>620929.6963953226</v>
       </c>
     </row>
     <row r="16">
@@ -26319,22 +26319,22 @@
         <v>402110.4899178064</v>
       </c>
       <c r="D2" t="n">
-        <v>402110.4899178063</v>
+        <v>402110.4899178064</v>
       </c>
       <c r="E2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030141</v>
       </c>
       <c r="F2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="G2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="H2" t="n">
-        <v>395143.1881030141</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="I2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
       <c r="J2" t="n">
         <v>395143.1881030142</v>
@@ -26346,16 +26346,16 @@
         <v>395143.1881030142</v>
       </c>
       <c r="M2" t="n">
+        <v>395143.1881030143</v>
+      </c>
+      <c r="N2" t="n">
+        <v>395143.1881030141</v>
+      </c>
+      <c r="O2" t="n">
         <v>395143.1881030142</v>
       </c>
-      <c r="N2" t="n">
-        <v>395143.1881030143</v>
-      </c>
-      <c r="O2" t="n">
-        <v>395143.1881030143</v>
-      </c>
       <c r="P2" t="n">
-        <v>395143.1881030143</v>
+        <v>395143.1881030142</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501615</v>
+        <v>66587.76789501606</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998278</v>
+        <v>11527.59554998288</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877251</v>
+        <v>53045.85463877243</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622321</v>
+        <v>9392.3017266224</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210792.2686648237</v>
+        <v>213733.2008684792</v>
       </c>
       <c r="C4" t="n">
-        <v>177969.3852340665</v>
+        <v>181924.0421275402</v>
       </c>
       <c r="D4" t="n">
-        <v>172059.5528814115</v>
+        <v>176196.7331348823</v>
       </c>
       <c r="E4" t="n">
-        <v>92027.5720735299</v>
+        <v>98472.7563659298</v>
       </c>
       <c r="F4" t="n">
-        <v>92027.5720735299</v>
+        <v>98472.75636592982</v>
       </c>
       <c r="G4" t="n">
-        <v>92027.5720735299</v>
+        <v>98472.7563659298</v>
       </c>
       <c r="H4" t="n">
-        <v>92027.57207352984</v>
+        <v>98472.7563659298</v>
       </c>
       <c r="I4" t="n">
-        <v>92027.57207352987</v>
+        <v>98472.75636592985</v>
       </c>
       <c r="J4" t="n">
-        <v>92027.57207352987</v>
+        <v>98472.75636592983</v>
       </c>
       <c r="K4" t="n">
-        <v>92027.57207352988</v>
+        <v>98472.75636592985</v>
       </c>
       <c r="L4" t="n">
-        <v>92027.57207352988</v>
+        <v>98472.75636592983</v>
       </c>
       <c r="M4" t="n">
-        <v>92027.57207352987</v>
+        <v>98472.75636592986</v>
       </c>
       <c r="N4" t="n">
-        <v>92027.57207352988</v>
+        <v>98472.75636592985</v>
       </c>
       <c r="O4" t="n">
-        <v>92027.57207352987</v>
+        <v>98472.7563659298</v>
       </c>
       <c r="P4" t="n">
-        <v>92027.57207352988</v>
+        <v>98472.75636592985</v>
       </c>
     </row>
     <row r="5">
@@ -26472,7 +26472,7 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800258</v>
+        <v>71956.21380800256</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-10297.86754394963</v>
+        <v>-13238.79974760513</v>
       </c>
       <c r="C6" t="n">
-        <v>85597.12298072113</v>
+        <v>81642.46608724754</v>
       </c>
       <c r="D6" t="n">
-        <v>144310.8169246543</v>
+        <v>140173.6366711836</v>
       </c>
       <c r="E6" t="n">
-        <v>43042.2682026421</v>
+        <v>36364.84051641565</v>
       </c>
       <c r="F6" t="n">
-        <v>225397.3774236919</v>
+        <v>218719.9497374655</v>
       </c>
       <c r="G6" t="n">
-        <v>225397.3774236919</v>
+        <v>218719.9497374655</v>
       </c>
       <c r="H6" t="n">
-        <v>225397.3774236918</v>
+        <v>218719.9497374655</v>
       </c>
       <c r="I6" t="n">
-        <v>225397.3774236919</v>
+        <v>218719.9497374654</v>
       </c>
       <c r="J6" t="n">
-        <v>114382.9120787016</v>
+        <v>107705.4843924752</v>
       </c>
       <c r="K6" t="n">
-        <v>172351.5227849193</v>
+        <v>165674.095098693</v>
       </c>
       <c r="L6" t="n">
-        <v>216005.0756970695</v>
+        <v>209327.648010843</v>
       </c>
       <c r="M6" t="n">
-        <v>73197.20648570423</v>
+        <v>66519.7787994778</v>
       </c>
       <c r="N6" t="n">
-        <v>225397.3774236919</v>
+        <v>218719.9497374653</v>
       </c>
       <c r="O6" t="n">
-        <v>225397.3774236919</v>
+        <v>218719.9497374655</v>
       </c>
       <c r="P6" t="n">
-        <v>225397.3774236919</v>
+        <v>218719.9497374654</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684632</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,10 +27014,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="E4" t="n">
         <v>610.7452967768884</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483592</v>
+        <v>206.1089748483589</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939342</v>
+        <v>37.11037423939374</v>
       </c>
       <c r="M4" t="n">
         <v>610.7452967768884</v>
@@ -27384,13 +27384,13 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>256.5968326301925</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>359.3701550186823</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>11.25323832560895</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27590,22 +27590,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>51.29390294607083</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27621,19 +27621,19 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>12.70902715010999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>400</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,10 +27681,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>114.1982880799852</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6.13452358835093</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>261.7841230226752</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9.444860208686578</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27867,7 +27867,7 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>147.1122069234081</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>229.4233680290247</v>
       </c>
       <c r="U10" t="n">
-        <v>102.9863699957344</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-8.294074529760191e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28620,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>-7.50022678360063e-13</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28857,7 +28857,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>-7.50022678360063e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -30045,7 +30045,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>3.205021433435225e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -30459,7 +30459,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-8.63709516081679e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="K2" t="n">
+        <v>424.2958575201043</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>236.2898988798406</v>
       </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="N2" t="n">
-        <v>424.2958575201044</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34774,17 +34774,17 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
+        <v>424.2958575201044</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>385.2554146752024</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888816</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>371.7091627680287</v>
+        <v>409.0142240616578</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L5" t="n">
-        <v>630.4048323684635</v>
+        <v>72.80589558611018</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684636</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>630.4048323684635</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="Q5" t="n">
-        <v>434.0712383807916</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684635</v>
+        <v>630.4048323684633</v>
       </c>
       <c r="L6" t="n">
-        <v>30.9144066474189</v>
+        <v>30.91440664741936</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908065</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35102,19 +35102,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>204.0749767191105</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>667.515206607857</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35254,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35269,13 +35269,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>112.1603739174598</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>935.0031416802861</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949883105</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,13 +35503,13 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35652,13 +35652,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35804,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35892,13 +35892,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1133.488385918383</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36056,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,19 +36120,19 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36360,13 +36360,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081364</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36375,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>654.127441484763</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
         <v>552.0189757157523</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36454,13 +36454,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>828.0031984638367</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>164.4273484133669</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
@@ -36609,16 +36609,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>387.209503997221</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O32" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>-1.358033040607337e-13</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,7 +37150,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>519.9105708963857</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37308,19 +37308,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
         <v>836.6766412458546</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37481,7 +37481,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165102</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37545,19 +37545,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458546</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
-        <v>756.3484258820586</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
@@ -38028,7 +38028,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>314.2706063049986</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
